--- a/Crash_Elements.xlsx
+++ b/Crash_Elements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rujuraj/Desktop/SUVID/SJSU/Assignments/Large Scale Analytics/Project/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CB644C-F0D0-9C4C-A514-E2EB22B903F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99943C4A-AD4F-0240-B3AF-B897310533EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" firstSheet="8" activeTab="15" xr2:uid="{066D7B63-CAF7-D44D-BCA4-916790917B6D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" firstSheet="13" activeTab="17" xr2:uid="{066D7B63-CAF7-D44D-BCA4-916790917B6D}"/>
   </bookViews>
   <sheets>
     <sheet name="FRPP_GLC_UnitedStates" sheetId="2" r:id="rId1"/>
@@ -21,14 +21,19 @@
     <sheet name="special_jurisdiction" sheetId="6" r:id="rId6"/>
     <sheet name="first_harmful_event" sheetId="7" r:id="rId7"/>
     <sheet name="manner_of_collision" sheetId="8" r:id="rId8"/>
-    <sheet name="junction_specific_location" sheetId="9" r:id="rId9"/>
-    <sheet name="type_of_intersection" sheetId="10" r:id="rId10"/>
-    <sheet name="work_zone" sheetId="11" r:id="rId11"/>
-    <sheet name="relation_to_trafficway" sheetId="12" r:id="rId12"/>
-    <sheet name="light_condition" sheetId="13" r:id="rId13"/>
-    <sheet name="atmospheric_conditions" sheetId="14" r:id="rId14"/>
-    <sheet name="school_bus_related" sheetId="15" r:id="rId15"/>
-    <sheet name="related_factors_crash_level" sheetId="16" r:id="rId16"/>
+    <sheet name="junction_specific_location1" sheetId="17" r:id="rId9"/>
+    <sheet name="junction_specific_location2" sheetId="9" r:id="rId10"/>
+    <sheet name="type_of_intersection" sheetId="10" r:id="rId11"/>
+    <sheet name="work_zone" sheetId="11" r:id="rId12"/>
+    <sheet name="relation_to_trafficway" sheetId="12" r:id="rId13"/>
+    <sheet name="light_condition" sheetId="13" r:id="rId14"/>
+    <sheet name="atmospheric_conditions1" sheetId="14" r:id="rId15"/>
+    <sheet name="atmospheric_conditions2" sheetId="18" r:id="rId16"/>
+    <sheet name="atmospheric_conditions" sheetId="19" r:id="rId17"/>
+    <sheet name="school_bus_related" sheetId="15" r:id="rId18"/>
+    <sheet name="related_factors_crash_level1" sheetId="16" r:id="rId19"/>
+    <sheet name="related_factors_crash_level2" sheetId="20" r:id="rId20"/>
+    <sheet name="related_factors_crash_level3" sheetId="21" r:id="rId21"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">first_harmful_event!$A$1:$B$57</definedName>
@@ -43,13 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="345">
-  <si>
-    <t>Codes </t>
-  </si>
-  <si>
-    <t>Attributes </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="357">
   <si>
     <t>01 </t>
   </si>
@@ -976,15 +975,6 @@
   </si>
   <si>
     <t>Blowing Sand, Soil, Dirt</t>
-  </si>
-  <si>
-    <t>atmospheric_conditions_1_name</t>
-  </si>
-  <si>
-    <t>atmospheric_conditions_2_name</t>
-  </si>
-  <si>
-    <t>atmospheric_conditions_name</t>
   </si>
   <si>
     <t>No</t>
@@ -1095,13 +1085,64 @@
     <t>22 </t>
   </si>
   <si>
-    <t>related_factors_crash_level_1_name</t>
-  </si>
-  <si>
-    <t>related_factors_crash_level_2_name</t>
-  </si>
-  <si>
-    <t>related_factors_crash_level_3_name</t>
+    <t>WORK_ZONE</t>
+  </si>
+  <si>
+    <t>WORK_ZONE_NAME</t>
+  </si>
+  <si>
+    <t>RELATION_TO_TRAFFICWAY</t>
+  </si>
+  <si>
+    <t>RELATION_TO_TRAFFICWAY_NAME</t>
+  </si>
+  <si>
+    <t>LIGHT_CONDITION</t>
+  </si>
+  <si>
+    <t>LIGHT_CONDITION_NAME</t>
+  </si>
+  <si>
+    <t>ATMOSPHERIC_CONDITIONS_1</t>
+  </si>
+  <si>
+    <t>ATMOSPHERIC_CONDITIONS_1_NAME</t>
+  </si>
+  <si>
+    <t>ATMOSPHERIC_CONDITIONS_2</t>
+  </si>
+  <si>
+    <t>ATMOSPHERIC_CONDITIONS_2_NAME</t>
+  </si>
+  <si>
+    <t>ATMOSPHERIC_CONDITIONS</t>
+  </si>
+  <si>
+    <t>ATMOSPHERIC_CONDITIONS_NAME</t>
+  </si>
+  <si>
+    <t>RELATED_FACTORS_CRASH_LEVEL_1</t>
+  </si>
+  <si>
+    <t>RELATED_FACTORS_CRASH_LEVEL_1_NAME</t>
+  </si>
+  <si>
+    <t>RELATED_FACTORS_CRASH_LEVEL_2</t>
+  </si>
+  <si>
+    <t>RELATED_FACTORS_CRASH_LEVEL_2_NAME</t>
+  </si>
+  <si>
+    <t>RELATED_FACTORS_CRASH_LEVEL_3</t>
+  </si>
+  <si>
+    <t>RELATED_FACTORS_CRASH_LEVEL_3_NAME</t>
+  </si>
+  <si>
+    <t>SCHOOL_BUS_RELATED</t>
+  </si>
+  <si>
+    <t>SCHOOL_BUS_RELATED_NAME</t>
   </si>
 </sst>
 </file>
@@ -1498,9 +1539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B995DE-3B0E-BA48-963B-A1126EE6F43D}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1510,15 +1549,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1526,7 +1565,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1534,7 +1573,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -1542,7 +1581,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -1550,7 +1589,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -1558,7 +1597,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -1566,7 +1605,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B8">
         <v>9</v>
@@ -1574,7 +1613,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -1582,7 +1621,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10">
         <v>11</v>
@@ -1590,7 +1629,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B11">
         <v>12</v>
@@ -1598,7 +1637,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B12">
         <v>13</v>
@@ -1606,7 +1645,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B13">
         <v>15</v>
@@ -1614,7 +1653,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B14">
         <v>16</v>
@@ -1622,7 +1661,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B15">
         <v>17</v>
@@ -1630,7 +1669,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16">
         <v>18</v>
@@ -1638,7 +1677,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B17">
         <v>19</v>
@@ -1646,7 +1685,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B18">
         <v>20</v>
@@ -1654,7 +1693,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B19">
         <v>21</v>
@@ -1662,7 +1701,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B20">
         <v>22</v>
@@ -1670,7 +1709,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B21">
         <v>23</v>
@@ -1678,7 +1717,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B22">
         <v>24</v>
@@ -1686,7 +1725,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B23">
         <v>25</v>
@@ -1694,7 +1733,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B24">
         <v>26</v>
@@ -1702,7 +1741,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B25">
         <v>27</v>
@@ -1710,7 +1749,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B26">
         <v>28</v>
@@ -1718,7 +1757,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B27">
         <v>29</v>
@@ -1726,7 +1765,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B28">
         <v>30</v>
@@ -1734,7 +1773,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B29">
         <v>31</v>
@@ -1742,7 +1781,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B30">
         <v>32</v>
@@ -1750,7 +1789,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B31">
         <v>33</v>
@@ -1758,7 +1797,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B32">
         <v>34</v>
@@ -1766,7 +1805,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B33">
         <v>35</v>
@@ -1774,7 +1813,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B34">
         <v>36</v>
@@ -1782,7 +1821,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B35">
         <v>37</v>
@@ -1790,7 +1829,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B36">
         <v>38</v>
@@ -1798,7 +1837,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B37">
         <v>39</v>
@@ -1806,7 +1845,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B38">
         <v>40</v>
@@ -1814,7 +1853,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B39">
         <v>41</v>
@@ -1822,7 +1861,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B40">
         <v>42</v>
@@ -1830,7 +1869,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B41">
         <v>44</v>
@@ -1838,7 +1877,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B42">
         <v>45</v>
@@ -1846,7 +1885,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B43">
         <v>46</v>
@@ -1854,7 +1893,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B44">
         <v>47</v>
@@ -1862,7 +1901,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B45">
         <v>48</v>
@@ -1870,7 +1909,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B46">
         <v>49</v>
@@ -1878,7 +1917,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B47">
         <v>50</v>
@@ -1886,7 +1925,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B48">
         <v>51</v>
@@ -1894,7 +1933,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B49">
         <v>53</v>
@@ -1902,7 +1941,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B50">
         <v>54</v>
@@ -1910,7 +1949,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B51">
         <v>55</v>
@@ -1918,7 +1957,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B52">
         <v>56</v>
@@ -1930,12 +1969,159 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A926B5FC-522D-4B4A-B6BF-07FB25D80746}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="str">
+        <f>UPPER("relation_to_junction_specific_location2")</f>
+        <v>RELATION_TO_JUNCTION_SPECIFIC_LOCATION2</v>
+      </c>
+      <c r="B1" s="4" t="str">
+        <f>UPPER("relation_to_junction_specific_location2_name")</f>
+        <v>RELATION_TO_JUNCTION_SPECIFIC_LOCATION2_NAME</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14232051-2C9B-8948-9189-5EE92FE1AE96}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1955,82 +2141,82 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2038,13 +2224,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0E12BE-5930-EB43-890F-DCBE3593E145}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2053,172 +2237,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3604E117-9AD6-9045-8D4A-CBD170192FFA}">
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -2227,96 +2289,119 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF85FD60-34D6-8B42-98E9-614659582EE1}">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3604E117-9AD6-9045-8D4A-CBD170192FFA}">
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>339</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>146</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2325,225 +2410,95 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77ADED5-ACDD-0F4C-B974-BA8F1A9C3A7B}">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF85FD60-34D6-8B42-98E9-614659582EE1}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>249</v>
+        <v>129</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>130</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2552,37 +2507,135 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F8FBCB-C631-B840-BAB6-0FA2DC8EE73F}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77ADED5-ACDD-0F4C-B974-BA8F1A9C3A7B}">
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>343</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>147</v>
+        <v>247</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>315</v>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2591,381 +2644,540 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFF0145-468B-0646-B517-6C2FD3EE3E1D}">
-  <dimension ref="A1:D26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6234CF5-8F20-1D42-82D4-1384FDD64163}">
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A94CD7-E606-F448-ABC4-159EB39F4B83}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="99.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F8FBCB-C631-B840-BAB6-0FA2DC8EE73F}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFF0145-468B-0646-B517-6C2FD3EE3E1D}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>349</v>
+      </c>
       <c r="B1" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B15" s="2" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="2" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B19" s="2" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B20" s="2" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2977,9 +3189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1D2302-C384-CE40-8933-396BF5920729}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2989,10 +3199,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3000,7 +3210,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3008,7 +3218,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3016,7 +3226,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3024,7 +3234,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -3032,7 +3242,459 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD5F507-921E-4F41-8D4A-BC593A5395E9}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD90243C-C72E-7C48-A8D4-A78FFC3636AC}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3056,90 +3718,90 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3163,242 +3825,242 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3410,9 +4072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A7537E-68C2-6F49-B576-9FF865DC3D54}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3432,74 +4092,74 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3511,9 +4171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0287A4-2F2E-6541-928E-75EA51068D77}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3533,66 +4191,66 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3604,9 +4262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6905D1E1-FEA3-9C45-8FA1-A2BCB9354422}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3631,615 +4287,615 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4253,7 +4909,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4274,90 +4930,90 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4366,147 +5022,57 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A926B5FC-522D-4B4A-B6BF-07FB25D80746}">
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32801B0-A939-A649-BBD1-111D5C68F058}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="str">
-        <f>UPPER("relation_to_junction_specific_location")</f>
-        <v>RELATION_TO_JUNCTION_SPECIFIC_LOCATION</v>
+        <f>UPPER("relation_to_junction_specific_location1")</f>
+        <v>RELATION_TO_JUNCTION_SPECIFIC_LOCATION1</v>
       </c>
       <c r="B1" s="4" t="str">
-        <f>UPPER("relation_to_junction_specific_location_name")</f>
-        <v>RELATION_TO_JUNCTION_SPECIFIC_LOCATION_NAME</v>
+        <f>UPPER("relation_to_junction_specific_location1_name")</f>
+        <v>RELATION_TO_JUNCTION_SPECIFIC_LOCATION1_NAME</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>258</v>
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>259</v>
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>260</v>
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
